--- a/Assets/Resources/Configs/Excel/NpcConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/NpcConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="12620"/>
+    <workbookView windowWidth="19080" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>名字</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>商店老板</t>
+  </si>
+  <si>
+    <t>铁匠</t>
   </si>
 </sst>
 </file>
@@ -42,9 +45,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -438,13 +441,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -476,6 +479,14 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/NpcConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/NpcConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7860"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Npc" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>商店老板</t>
-  </si>
-  <si>
     <t>铁匠</t>
+  </si>
+  <si>
+    <t>杂货铺</t>
   </si>
 </sst>
 </file>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
